--- a/Weekly progress report.xlsx
+++ b/Weekly progress report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Dropbox\My PC (LAPTOP-BMN7VR46)\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CF2F1ED-3BA4-4E5B-819C-4BE399C2CA69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60660176-2344-4C5C-84FF-AAC24AC00B5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{09A61673-1432-406E-9905-A6BC12C7CF58}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t xml:space="preserve">Student Names    </t>
   </si>
@@ -74,6 +74,33 @@
 Vaish - Write our project's objective
 Hiroko - Explain how the algorithm works
 Luciana - Explain the hyper parameters</t>
+  </si>
+  <si>
+    <t>Check the details about parameter with Masoud, and create the script for explanation of hyper parameter</t>
+  </si>
+  <si>
+    <t>Decide the order of presentation and work on to make each part's explanation</t>
+  </si>
+  <si>
+    <t>Make sure the objectives with Masaoud and create the script. (Plus: Tensorflow explanation)</t>
+  </si>
+  <si>
+    <t>Make sure the entire project with Masoud, and create dataset script</t>
+  </si>
+  <si>
+    <t>Make sure the details about sample data with team members, and create the script</t>
+  </si>
+  <si>
+    <t>Make sure the details of algorithm with team members, and create the script</t>
+  </si>
+  <si>
+    <t>Next: understand each steps, parameters, and data by Feb 18, then show each part deliverables on Friday (Feb 19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next  </t>
+  </si>
+  <si>
+    <t>Next: understand each part and prepare for that by next lab (Feb 12)</t>
   </si>
 </sst>
 </file>
@@ -120,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -205,13 +232,59 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -221,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -257,17 +330,49 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,15 +688,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9933D694-89DB-4068-8828-556EE40F700C}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:G3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="22.21875" customWidth="1"/>
+    <col min="8" max="8" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -611,10 +717,12 @@
       <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3"/>
+      <c r="H1" s="25" t="s">
+        <v>19</v>
+      </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -632,8 +740,8 @@
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="5"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="26"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -643,14 +751,16 @@
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="5"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -672,19 +782,83 @@
       <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="5"/>
+      <c r="G4" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="26"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>44235</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" spans="1:11" ht="119.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="27"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
